--- a/GtMetrix_website_performances.xlsx
+++ b/GtMetrix_website_performances.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,7 +25,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,26 +55,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -360,11 +379,16 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="15.54296875" customWidth="1" min="1" max="1"/>
+    <col width="14.36328125" customWidth="1" min="2" max="2"/>
+    <col width="12.81640625" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -394,7 +418,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>5.5s</t>
         </is>
@@ -406,12 +430,12 @@
           <t>https://ferinc.net/</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>6.5s</t>
         </is>
@@ -428,7 +452,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>8.8s</t>
         </is>
@@ -445,7 +469,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>4.6s</t>
         </is>
@@ -457,12 +481,12 @@
           <t>https://www.raydeo.com/</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>5.4s</t>
         </is>
@@ -474,12 +498,12 @@
           <t>https://www.chicagofaceliftsurgeon.com/</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>6.2s</t>
         </is>
@@ -491,7 +515,7 @@
           <t>https://silverpetalinteriors.com/</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>E</t>
         </is>
@@ -508,12 +532,12 @@
           <t>https://longislandlaundry.com/</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>6.4s</t>
         </is>
@@ -525,12 +549,12 @@
           <t>https://beial.com/</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>6.1s</t>
         </is>
@@ -542,12 +566,12 @@
           <t>https://georgiayardbarns.com/</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>5.8s</t>
         </is>
@@ -564,7 +588,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>10.8s</t>
         </is>
@@ -581,7 +605,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>19.7s</t>
         </is>
@@ -598,20 +622,19 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>5.4s</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -628,7 +651,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>6.9s</t>
         </is>
@@ -640,12 +663,12 @@
           <t>https://www.prplastic.com/</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>7.6s</t>
         </is>
@@ -662,7 +685,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>5.5s</t>
         </is>
@@ -674,7 +697,7 @@
           <t>https://www.ameritexflags.com/</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -691,12 +714,12 @@
           <t>https://northernplainspower.com/</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>ERROR</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>ERROR</t>
         </is>
@@ -730,7 +753,7 @@
           <t>B</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>4.5s</t>
         </is>
@@ -747,7 +770,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>4.5s</t>
         </is>
@@ -759,12 +782,12 @@
           <t>https://whitedogstudios.net/</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>11.3s</t>
         </is>
@@ -815,20 +838,19 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>4.5s</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -845,7 +867,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>11.9s</t>
         </is>
@@ -857,25 +879,24 @@
           <t>https://aggridenergy.com/</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>8.2s</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -904,12 +925,12 @@
           <t>http://rancherotaqueria.com/</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>6.0s</t>
         </is>
@@ -967,6 +988,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>